--- a/Bufanda Bilduma.xlsx
+++ b/Bufanda Bilduma.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kodea\Beste\bufandaweb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andmu\Documents\Andoni\kodea\bufandaweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73002B83-67A1-42C0-9E2D-3650FFBB4486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="564">
   <si>
     <t>ZENBAKIA</t>
   </si>
@@ -1733,12 +1734,60 @@
   <si>
     <t>valerenga.jpg</t>
   </si>
+  <si>
+    <t>lecce_eskudo.jpg</t>
+  </si>
+  <si>
+    <t>lecce.jpg</t>
+  </si>
+  <si>
+    <t>medellin_eskudo.jpg</t>
+  </si>
+  <si>
+    <t>medellin.jpg</t>
+  </si>
+  <si>
+    <t>arconada_cruiff_eskudo.jpg</t>
+  </si>
+  <si>
+    <t>arconada_cruiff.jpg</t>
+  </si>
+  <si>
+    <t>arconda_cruiff_arconada.jpg</t>
+  </si>
+  <si>
+    <t>cracovia_eskudo.jpg</t>
+  </si>
+  <si>
+    <t>cracovia.jpg</t>
+  </si>
+  <si>
+    <t>Atlanta United</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Ion Alberdi</t>
+  </si>
+  <si>
+    <t>Zubipeko tabernan txiripaz lortutako bufanda</t>
+  </si>
+  <si>
+    <t>Familiarekin Atlantan pasatako hilabeteen ondoren ekarria</t>
+  </si>
+  <si>
+    <t>Gure amari bufanda bildumaren berri entzun eta Elgoibarkoa eduki behar nuela erabaki zuen bere lagun batek</t>
+  </si>
+  <si>
+    <t>David eta Iñakiren opari bat. Oso gutxi egin zituzten eta Ajaxeko zeleek etengabe eskatu zizkieten.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1793,7 +1842,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1840,6 +1889,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
   </fills>
@@ -2294,9 +2349,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2305,6 +2359,9 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2341,7 +2398,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Sheet1-style" pivot="0" count="3">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -2359,19 +2416,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K213">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K213">
   <tableColumns count="11">
-    <tableColumn id="1" name="ZENBAKIA" dataDxfId="0"/>
-    <tableColumn id="2" name="TALDEA"/>
-    <tableColumn id="3" name="NONDIK"/>
-    <tableColumn id="4" name="LIGA"/>
-    <tableColumn id="5" name="NORK"/>
-    <tableColumn id="6" name="NOIZ"/>
-    <tableColumn id="7" name="BESTE"/>
-    <tableColumn id="8" name="main_image"/>
-    <tableColumn id="9" name="image_1"/>
-    <tableColumn id="10" name="image_2"/>
-    <tableColumn id="11" name="image_3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ZENBAKIA" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TALDEA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NONDIK"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="LIGA"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NORK"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NOIZ"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BESTE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="main_image"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="image_1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="image_2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="image_3"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2693,18 +2750,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K214"/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I214" sqref="I214"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="16" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
@@ -2719,7 +2776,7 @@
     <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2811,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2774,7 +2831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2794,7 +2851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2814,7 +2871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2834,7 +2891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2854,7 +2911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2871,7 +2928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2888,7 +2945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2908,7 +2965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2928,7 +2985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2948,7 +3005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -2965,7 +3022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2982,7 +3039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3002,7 +3059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3022,7 +3079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3042,7 +3099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3056,7 +3113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3076,7 +3133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -3093,7 +3150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -3110,7 +3167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -3130,7 +3187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -3150,7 +3207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -3170,7 +3227,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -3187,7 +3244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -3204,7 +3261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -3224,7 +3281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -3244,7 +3301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -3261,7 +3318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -3278,7 +3335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -3295,7 +3352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -3312,7 +3369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -3329,7 +3386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -3349,7 +3406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -3369,7 +3426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -3386,7 +3443,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -3406,7 +3463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -3426,7 +3483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -3446,7 +3503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75">
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -3463,7 +3520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75">
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -3483,7 +3540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -3503,7 +3560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -3520,7 +3577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -3540,7 +3597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -3560,7 +3617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -3580,7 +3637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -3597,7 +3654,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -3614,7 +3671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -3634,7 +3691,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12.75">
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -3651,7 +3708,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12.75">
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -3671,7 +3728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="12.75">
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -3691,7 +3748,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12.75">
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -3708,7 +3765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12.75">
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>52</v>
       </c>
@@ -3728,7 +3785,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12.75">
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -3745,7 +3802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12.75">
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -3765,7 +3822,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.75">
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>55</v>
       </c>
@@ -3785,7 +3842,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.75">
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>56</v>
       </c>
@@ -3805,7 +3862,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12.75">
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -3825,7 +3882,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12.75">
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -3842,7 +3899,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12.75">
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -3859,7 +3916,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="12.75">
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -3879,7 +3936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="12.75">
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -3899,7 +3956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12.75">
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -3919,7 +3976,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="12.75">
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -3939,7 +3996,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12.75">
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -3959,7 +4016,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12.75">
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -3979,7 +4036,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12.75">
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -3999,7 +4056,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="12.75">
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -4019,7 +4076,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="12.75">
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -4039,7 +4096,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="12.75">
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -4059,7 +4116,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="12.75">
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -4079,7 +4136,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12.75">
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -4099,7 +4156,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12.75">
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -4119,7 +4176,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12.75">
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -4139,7 +4196,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12.75">
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -4159,7 +4216,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12.75">
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -4179,7 +4236,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12.75">
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -4199,7 +4256,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="12.75">
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -4219,7 +4276,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="12.75">
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -4239,7 +4296,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12.75">
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -4259,7 +4316,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="12.75">
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -4279,7 +4336,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="12.75">
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -4299,7 +4356,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="12.75">
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -4319,7 +4376,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="12.75">
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -4339,7 +4396,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12.75">
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -4359,7 +4416,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="12.75">
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -4379,7 +4436,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="12.75">
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -4399,7 +4456,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="12.75">
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -4419,7 +4476,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="12.75">
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -4439,7 +4496,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="12.75">
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -4459,7 +4516,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="12.75">
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>90</v>
       </c>
@@ -4479,7 +4536,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="12.75">
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -4499,7 +4556,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="12.75">
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>92</v>
       </c>
@@ -4519,7 +4576,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="12.75">
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
         <v>93</v>
       </c>
@@ -4539,7 +4596,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="12.75">
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -4559,7 +4616,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="12.75">
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -4579,7 +4636,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="12.75">
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="12">
         <v>96</v>
       </c>
@@ -4599,7 +4656,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="12.75">
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="12">
         <v>97</v>
       </c>
@@ -4619,7 +4676,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="12.75">
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
         <v>98</v>
       </c>
@@ -4639,7 +4696,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="12.75">
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="12">
         <v>99</v>
       </c>
@@ -4659,7 +4716,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="12.75">
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>100</v>
       </c>
@@ -4679,7 +4736,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="12.75">
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="12">
         <v>101</v>
       </c>
@@ -4699,7 +4756,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="12.75">
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>102</v>
       </c>
@@ -4719,7 +4776,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="12.75">
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
         <v>103</v>
       </c>
@@ -4739,7 +4796,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="12.75">
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>104</v>
       </c>
@@ -4759,7 +4816,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="12.75">
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
         <v>105</v>
       </c>
@@ -4779,7 +4836,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="12.75">
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>106</v>
       </c>
@@ -4799,7 +4856,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="12.75">
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>107</v>
       </c>
@@ -4819,7 +4876,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="12.75">
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>108</v>
       </c>
@@ -4839,7 +4896,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="12.75">
+    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>109</v>
       </c>
@@ -4859,7 +4916,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="12.75">
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>110</v>
       </c>
@@ -4879,7 +4936,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="12.75">
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
         <v>111</v>
       </c>
@@ -4899,7 +4956,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="12.75">
+    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>112</v>
       </c>
@@ -4919,7 +4976,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="12.75">
+    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="12">
         <v>113</v>
       </c>
@@ -4939,7 +4996,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="12.75">
+    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="12">
         <v>114</v>
       </c>
@@ -4959,7 +5016,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="12.75">
+    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
         <v>115</v>
       </c>
@@ -4979,7 +5036,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="12.75">
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="12">
         <v>116</v>
       </c>
@@ -4999,7 +5056,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="12.75">
+    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="12">
         <v>117</v>
       </c>
@@ -5019,7 +5076,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="12.75">
+    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="12">
         <v>118</v>
       </c>
@@ -5039,7 +5096,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="12.75">
+    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="12">
         <v>119</v>
       </c>
@@ -5059,7 +5116,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="12.75">
+    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>120</v>
       </c>
@@ -5079,7 +5136,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="12.75">
+    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <v>121</v>
       </c>
@@ -5099,7 +5156,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="12.75">
+    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>122</v>
       </c>
@@ -5119,7 +5176,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="12.75">
+    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>123</v>
       </c>
@@ -5139,7 +5196,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="12.75">
+    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="12">
         <v>124</v>
       </c>
@@ -5159,7 +5216,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="12.75">
+    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="12">
         <v>125</v>
       </c>
@@ -5179,7 +5236,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="12.75">
+    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>126</v>
       </c>
@@ -5199,7 +5256,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="12.75">
+    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="12">
         <v>127</v>
       </c>
@@ -5219,7 +5276,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75">
+    <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>128</v>
       </c>
@@ -5239,7 +5296,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="12.75">
+    <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="12">
         <v>129</v>
       </c>
@@ -5259,7 +5316,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="12.75">
+    <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>130</v>
       </c>
@@ -5279,7 +5336,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="12.75">
+    <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>131</v>
       </c>
@@ -5299,7 +5356,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="12.75">
+    <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>132</v>
       </c>
@@ -5319,7 +5376,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="12.75">
+    <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="12">
         <v>133</v>
       </c>
@@ -5342,7 +5399,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="12.75">
+    <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>134</v>
       </c>
@@ -5362,7 +5419,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="12.75">
+    <row r="136" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>135</v>
       </c>
@@ -5382,7 +5439,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="12.75">
+    <row r="137" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>136</v>
       </c>
@@ -5402,7 +5459,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="12.75">
+    <row r="138" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>137</v>
       </c>
@@ -5422,7 +5479,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="12.75">
+    <row r="139" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>138</v>
       </c>
@@ -5442,7 +5499,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="12.75">
+    <row r="140" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>139</v>
       </c>
@@ -5462,7 +5519,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="12.75">
+    <row r="141" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>140</v>
       </c>
@@ -5482,7 +5539,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="12.75">
+    <row r="142" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>141</v>
       </c>
@@ -5502,7 +5559,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="12.75">
+    <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>142</v>
       </c>
@@ -5522,7 +5579,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="12.75">
+    <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>143</v>
       </c>
@@ -5542,7 +5599,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="12.75">
+    <row r="145" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>144</v>
       </c>
@@ -5562,7 +5619,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="12.75">
+    <row r="146" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>145</v>
       </c>
@@ -5582,7 +5639,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="12.75">
+    <row r="147" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>146</v>
       </c>
@@ -5602,7 +5659,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="12.75">
+    <row r="148" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>147</v>
       </c>
@@ -5622,7 +5679,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="12.75">
+    <row r="149" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>148</v>
       </c>
@@ -5642,7 +5699,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="12.75">
+    <row r="150" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>149</v>
       </c>
@@ -5662,7 +5719,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="12.75">
+    <row r="151" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>150</v>
       </c>
@@ -5682,7 +5739,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="12.75">
+    <row r="152" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>151</v>
       </c>
@@ -5702,7 +5759,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="12.75">
+    <row r="153" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>152</v>
       </c>
@@ -5722,7 +5779,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="12.75">
+    <row r="154" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>153</v>
       </c>
@@ -5742,7 +5799,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="12.75">
+    <row r="155" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>154</v>
       </c>
@@ -5762,7 +5819,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="12.75">
+    <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>155</v>
       </c>
@@ -5782,7 +5839,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="12.75">
+    <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>156</v>
       </c>
@@ -5802,7 +5859,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="12.75">
+    <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>157</v>
       </c>
@@ -5822,7 +5879,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="12.75">
+    <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>158</v>
       </c>
@@ -5842,7 +5899,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="12.75">
+    <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>159</v>
       </c>
@@ -5868,7 +5925,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="12.75">
+    <row r="161" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>160</v>
       </c>
@@ -5888,7 +5945,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="12.75">
+    <row r="162" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="12">
         <v>161</v>
       </c>
@@ -5908,7 +5965,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="12.75">
+    <row r="163" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>162</v>
       </c>
@@ -5928,7 +5985,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="12.75">
+    <row r="164" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>163</v>
       </c>
@@ -5948,7 +6005,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="12.75">
+    <row r="165" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>164</v>
       </c>
@@ -5968,7 +6025,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="12.75">
+    <row r="166" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>165</v>
       </c>
@@ -5988,7 +6045,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="12.75">
+    <row r="167" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>166</v>
       </c>
@@ -6008,7 +6065,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="12.75">
+    <row r="168" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>167</v>
       </c>
@@ -6028,7 +6085,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="12.75">
+    <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>168</v>
       </c>
@@ -6048,7 +6105,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="12.75">
+    <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>169</v>
       </c>
@@ -6068,7 +6125,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="12.75">
+    <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>170</v>
       </c>
@@ -6088,7 +6145,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="12.75">
+    <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>171</v>
       </c>
@@ -6108,7 +6165,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="12.75">
+    <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>172</v>
       </c>
@@ -6127,8 +6184,14 @@
       <c r="F173" s="4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="12.75">
+      <c r="H173" t="s">
+        <v>555</v>
+      </c>
+      <c r="I173" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>173</v>
       </c>
@@ -6148,7 +6211,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="12.75">
+    <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>174</v>
       </c>
@@ -6168,7 +6231,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="12.75">
+    <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>175</v>
       </c>
@@ -6188,7 +6251,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="12.75">
+    <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="12">
         <v>176</v>
       </c>
@@ -6208,7 +6271,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="12.75">
+    <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="12">
         <v>177</v>
       </c>
@@ -6228,7 +6291,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="12.75">
+    <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>178</v>
       </c>
@@ -6248,7 +6311,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="12.75">
+    <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="12">
         <v>179</v>
       </c>
@@ -6268,7 +6331,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="12.75">
+    <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="12">
         <v>180</v>
       </c>
@@ -6288,7 +6351,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="12.75">
+    <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="12">
         <v>181</v>
       </c>
@@ -6308,7 +6371,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="12.75">
+    <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="12">
         <v>182</v>
       </c>
@@ -6328,7 +6391,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="12.75">
+    <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="12">
         <v>183</v>
       </c>
@@ -6348,7 +6411,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="12.75">
+    <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>184</v>
       </c>
@@ -6368,7 +6431,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="12.75">
+    <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="12">
         <v>185</v>
       </c>
@@ -6388,7 +6451,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="12.75">
+    <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="12">
         <v>186</v>
       </c>
@@ -6408,7 +6471,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="12.75">
+    <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="12">
         <v>187</v>
       </c>
@@ -6428,7 +6491,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="12.75">
+    <row r="189" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="12">
         <v>188</v>
       </c>
@@ -6448,7 +6511,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="12.75">
+    <row r="190" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="12">
         <v>189</v>
       </c>
@@ -6468,7 +6531,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="12.75">
+    <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>190</v>
       </c>
@@ -6488,7 +6551,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="12.75">
+    <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="12">
         <v>191</v>
       </c>
@@ -6508,7 +6571,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="12.75">
+    <row r="193" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="12">
         <v>192</v>
       </c>
@@ -6527,8 +6590,14 @@
       <c r="F193" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" ht="12.75">
+      <c r="H193" t="s">
+        <v>550</v>
+      </c>
+      <c r="I193" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="12">
         <v>193</v>
       </c>
@@ -6547,8 +6616,14 @@
       <c r="F194" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" ht="12.75">
+      <c r="H194" t="s">
+        <v>548</v>
+      </c>
+      <c r="I194" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>194</v>
       </c>
@@ -6574,7 +6649,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="12.75">
+    <row r="196" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="12">
         <v>195</v>
       </c>
@@ -6593,6 +6668,9 @@
       <c r="F196" s="3" t="s">
         <v>486</v>
       </c>
+      <c r="G196" t="s">
+        <v>560</v>
+      </c>
       <c r="H196" t="s">
         <v>526</v>
       </c>
@@ -6606,7 +6684,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="12.75">
+    <row r="197" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>196</v>
       </c>
@@ -6635,7 +6713,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="12.75">
+    <row r="198" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="12">
         <v>197</v>
       </c>
@@ -6654,8 +6732,20 @@
       <c r="F198" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" ht="12.75">
+      <c r="G198" t="s">
+        <v>563</v>
+      </c>
+      <c r="H198" t="s">
+        <v>552</v>
+      </c>
+      <c r="I198" t="s">
+        <v>553</v>
+      </c>
+      <c r="J198" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="14">
         <v>1001</v>
       </c>
@@ -6673,7 +6763,7 @@
       </c>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="1:11" ht="12.75">
+    <row r="200" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="14">
         <v>1002</v>
       </c>
@@ -6691,7 +6781,7 @@
       </c>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" spans="1:11" ht="12.75">
+    <row r="201" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="14">
         <v>1003</v>
       </c>
@@ -6707,7 +6797,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" spans="1:11" ht="12.75">
+    <row r="202" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="14">
         <v>1004</v>
       </c>
@@ -6727,7 +6817,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="12.75">
+    <row r="203" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="14">
         <v>1005</v>
       </c>
@@ -6747,7 +6837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="12.75">
+    <row r="204" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="15">
         <v>2001</v>
       </c>
@@ -6770,7 +6860,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="12.75">
+    <row r="205" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="15">
         <v>2002</v>
       </c>
@@ -6793,7 +6883,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="12.75">
+    <row r="206" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="15">
         <v>2003</v>
       </c>
@@ -6816,7 +6906,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="12.75">
+    <row r="207" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="15">
         <v>2004</v>
       </c>
@@ -6836,7 +6926,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="13.5" thickBot="1">
+    <row r="208" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="15">
         <v>2005</v>
       </c>
@@ -6856,7 +6946,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="16">
         <v>198</v>
       </c>
@@ -6885,7 +6975,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="16">
         <v>199</v>
       </c>
@@ -6911,7 +7001,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="16">
         <v>200</v>
       </c>
@@ -6943,23 +7033,23 @@
         <v>520</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A212" s="32">
+    <row r="212" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="31">
         <v>201</v>
       </c>
-      <c r="B212" s="33" t="s">
+      <c r="B212" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C212" s="33" t="s">
+      <c r="C212" s="32" t="s">
         <v>539</v>
       </c>
-      <c r="D212" s="33" t="s">
+      <c r="D212" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E212" s="33" t="s">
+      <c r="E212" s="32" t="s">
         <v>540</v>
       </c>
-      <c r="F212" s="33" t="s">
+      <c r="F212" s="32" t="s">
         <v>515</v>
       </c>
       <c r="G212" s="17" t="s">
@@ -6974,10 +7064,9 @@
       <c r="J212" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="K212" s="29"/>
-    </row>
-    <row r="213" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A213" s="34">
+    </row>
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="33">
         <v>202</v>
       </c>
       <c r="B213" s="25" t="s">
@@ -7005,8 +7094,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A214" s="31">
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="30">
         <v>203</v>
       </c>
       <c r="B214" s="26" t="s">
@@ -7022,29 +7111,51 @@
       <c r="F214" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="G214" s="30"/>
-      <c r="H214" s="30" t="s">
+      <c r="G214" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="H214" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="I214" s="30" t="s">
+      <c r="I214" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="J214" s="30" t="s">
+      <c r="J214" s="29" t="s">
         <v>524</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>557</v>
+      </c>
+      <c r="C215" t="s">
+        <v>558</v>
+      </c>
+      <c r="D215" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E215" t="s">
+        <v>559</v>
+      </c>
+      <c r="F215" t="s">
+        <v>438</v>
+      </c>
+      <c r="G215" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A211 A214">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A211 A214" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E186" r:id="rId1"/>
-    <hyperlink ref="E197" r:id="rId2"/>
-    <hyperlink ref="E198" r:id="rId3"/>
-    <hyperlink ref="E209" r:id="rId4" display="http://atotxa.org/"/>
-    <hyperlink ref="E210" r:id="rId5" display="http://atotxa.org/"/>
+    <hyperlink ref="E186" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E197" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E198" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E209" r:id="rId4" display="http://atotxa.org/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E210" r:id="rId5" display="http://atotxa.org/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/Bufanda Bilduma.xlsx
+++ b/Bufanda Bilduma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andmu\Documents\Andoni\kodea\bufandaweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73002B83-67A1-42C0-9E2D-3650FFBB4486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5338BCEE-77DF-4930-BA9A-02A16CB9000D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2756,9 +2756,9 @@
   </sheetPr>
   <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G199" sqref="G199"/>
+      <selection pane="bottomLeft" activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7125,6 +7125,9 @@
       </c>
     </row>
     <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="16">
+        <v>204</v>
+      </c>
       <c r="B215" t="s">
         <v>557</v>
       </c>
